--- a/StateTax.xlsx
+++ b/StateTax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesbessjr/git/CustomerView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AFAFF0-E596-AD44-9836-29FC66B4D0ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3DC68-96F2-324F-BACC-3763518465A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AC6A4564-C96F-5943-8AD4-FEC22FBBFF02}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="State_Taxes_1" localSheetId="1">Sheet2!$A$1:$B$52</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{34C69E78-3A1C-C845-B75B-8FDD85E6166D}" name="State Taxes" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/charlesbessjr/Desktop/State Taxes.txt" comma="1">
+    <textPr sourceFile="/Users/charlesbessjr/Desktop/State Taxes.txt" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -596,12 +596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59034B5B-0E9D-F744-9084-4C57AF6F1BA2}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
